--- a/tut06/output/2001MM10.xlsx
+++ b/tut06/output/2001MM10.xlsx
@@ -493,7 +493,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -515,16 +515,16 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -559,16 +559,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -603,7 +603,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -669,7 +669,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -801,7 +801,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
